--- a/GameData/ABCharacterStatTable.xlsx
+++ b/GameData/ABCharacterStatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UE5Part2\PreTest\ArenaBattle10pre\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeky\source\repos\unreal\ArenaBattle\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DBFFE-125E-4A66-AF5B-85CEEB9F49AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF53DB-47DA-41C0-BC48-DC4849ADEC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1120" windowWidth="31540" windowHeight="17940" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
+    <workbookView xWindow="4140" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>MovementSpeed</t>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -133,7 +137,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +193,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -295,7 +299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,20 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D538BA-27C2-42AB-99FE-D911400E397E}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,8 +481,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,8 +504,11 @@
       <c r="F3" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,8 +527,11 @@
       <c r="F4" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -537,8 +550,11 @@
       <c r="F5" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -557,8 +573,11 @@
       <c r="F6" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,8 +596,11 @@
       <c r="F7" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,8 +619,11 @@
       <c r="F8" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -617,8 +642,11 @@
       <c r="F9" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,8 +665,11 @@
       <c r="F10" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,8 +688,11 @@
       <c r="F11" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -676,6 +710,9 @@
       </c>
       <c r="F12" s="1">
         <v>400</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
